--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="N2">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="O2">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="P2">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="Q2">
-        <v>1484.116738762116</v>
+        <v>7026.92383477398</v>
       </c>
       <c r="R2">
-        <v>1484.116738762116</v>
+        <v>63242.31451296582</v>
       </c>
       <c r="S2">
-        <v>0.0175897815548179</v>
+        <v>0.04801920887264323</v>
       </c>
       <c r="T2">
-        <v>0.0175897815548179</v>
+        <v>0.04801920887264323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="N3">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="O3">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="P3">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="Q3">
-        <v>1840.225719859722</v>
+        <v>7926.938224400471</v>
       </c>
       <c r="R3">
-        <v>1840.225719859722</v>
+        <v>71342.44401960424</v>
       </c>
       <c r="S3">
-        <v>0.02181039238927307</v>
+        <v>0.05416955004326857</v>
       </c>
       <c r="T3">
-        <v>0.02181039238927307</v>
+        <v>0.05416955004326858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="N4">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="O4">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="P4">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="Q4">
-        <v>2187.034356222282</v>
+        <v>10430.08402890335</v>
       </c>
       <c r="R4">
-        <v>2187.034356222282</v>
+        <v>93870.75626013015</v>
       </c>
       <c r="S4">
-        <v>0.02592077535013767</v>
+        <v>0.07127505510513901</v>
       </c>
       <c r="T4">
-        <v>0.02592077535013767</v>
+        <v>0.07127505510513901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="N5">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="O5">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="P5">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="Q5">
-        <v>863.7040914053434</v>
+        <v>3716.94431816354</v>
       </c>
       <c r="R5">
-        <v>863.7040914053434</v>
+        <v>33452.49886347186</v>
       </c>
       <c r="S5">
-        <v>0.01023663833108859</v>
+        <v>0.02540012241183206</v>
       </c>
       <c r="T5">
-        <v>0.01023663833108859</v>
+        <v>0.02540012241183207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="N6">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="O6">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="P6">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="Q6">
-        <v>6821.168835791918</v>
+        <v>7618.478324889873</v>
       </c>
       <c r="R6">
-        <v>6821.168835791918</v>
+        <v>68566.30492400886</v>
       </c>
       <c r="S6">
-        <v>0.08084463077357895</v>
+        <v>0.05206165750142343</v>
       </c>
       <c r="T6">
-        <v>0.08084463077357895</v>
+        <v>0.05206165750142343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="N7">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="O7">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="P7">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="Q7">
-        <v>8457.886097019409</v>
+        <v>8594.259517440532</v>
       </c>
       <c r="R7">
-        <v>8457.886097019409</v>
+        <v>77348.33565696479</v>
       </c>
       <c r="S7">
-        <v>0.1002430368019378</v>
+        <v>0.05872975893539808</v>
       </c>
       <c r="T7">
-        <v>0.1002430368019378</v>
+        <v>0.05872975893539809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="N8">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="O8">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="P8">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="Q8">
-        <v>10051.85791915043</v>
+        <v>11308.13012484233</v>
       </c>
       <c r="R8">
-        <v>10051.85791915043</v>
+        <v>101773.1711235809</v>
       </c>
       <c r="S8">
-        <v>0.1191348230230174</v>
+        <v>0.07727527367475708</v>
       </c>
       <c r="T8">
-        <v>0.1191348230230174</v>
+        <v>0.07727527367475709</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="N9">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="O9">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="P9">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="Q9">
-        <v>3969.681951403709</v>
+        <v>4029.85152373753</v>
       </c>
       <c r="R9">
-        <v>3969.681951403709</v>
+        <v>36268.66371363778</v>
       </c>
       <c r="S9">
-        <v>0.04704875064311679</v>
+        <v>0.02753840607841401</v>
       </c>
       <c r="T9">
-        <v>0.04704875064311679</v>
+        <v>0.02753840607841401</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H10">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="N10">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="O10">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="P10">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="Q10">
-        <v>9271.098183972377</v>
+        <v>18398.27000865046</v>
       </c>
       <c r="R10">
-        <v>9271.098183972377</v>
+        <v>165584.4300778541</v>
       </c>
       <c r="S10">
-        <v>0.1098812428767317</v>
+        <v>0.1257264759393953</v>
       </c>
       <c r="T10">
-        <v>0.1098812428767317</v>
+        <v>0.1257264759393953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H11">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="N11">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="O11">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="P11">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="Q11">
-        <v>11495.66801848825</v>
+        <v>20754.73610126345</v>
       </c>
       <c r="R11">
-        <v>11495.66801848825</v>
+        <v>186792.624911371</v>
       </c>
       <c r="S11">
-        <v>0.1362468894735143</v>
+        <v>0.1418296300596255</v>
       </c>
       <c r="T11">
-        <v>0.1362468894735143</v>
+        <v>0.1418296300596255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H12">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="N12">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="O12">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="P12">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="Q12">
-        <v>13662.13972168372</v>
+        <v>27308.6071072875</v>
       </c>
       <c r="R12">
-        <v>13662.13972168372</v>
+        <v>245777.4639655875</v>
       </c>
       <c r="S12">
-        <v>0.161923955844781</v>
+        <v>0.1866161836302253</v>
       </c>
       <c r="T12">
-        <v>0.161923955844781</v>
+        <v>0.1866161836302253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H13">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="N13">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="O13">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="P13">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="Q13">
-        <v>5395.455238916408</v>
+        <v>9731.903572694921</v>
       </c>
       <c r="R13">
-        <v>5395.455238916408</v>
+        <v>87587.13215425429</v>
       </c>
       <c r="S13">
-        <v>0.06394704443566648</v>
+        <v>0.06650396693828566</v>
       </c>
       <c r="T13">
-        <v>0.06394704443566648</v>
+        <v>0.06650396693828567</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H14">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="N14">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="O14">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="P14">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="Q14">
-        <v>2065.809506320885</v>
+        <v>2291.662939796587</v>
       </c>
       <c r="R14">
-        <v>2065.809506320885</v>
+        <v>20624.96645816928</v>
       </c>
       <c r="S14">
-        <v>0.02448401598135667</v>
+        <v>0.01566031509082487</v>
       </c>
       <c r="T14">
-        <v>0.02448401598135667</v>
+        <v>0.01566031509082487</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H15">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="N15">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="O15">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="P15">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="Q15">
-        <v>2561.493773753432</v>
+        <v>2585.181080947325</v>
       </c>
       <c r="R15">
-        <v>2561.493773753432</v>
+        <v>23266.62972852592</v>
       </c>
       <c r="S15">
-        <v>0.03035887592773179</v>
+        <v>0.01766610158563189</v>
       </c>
       <c r="T15">
-        <v>0.03035887592773179</v>
+        <v>0.0176661015856319</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H16">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="N16">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="O16">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="P16">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="Q16">
-        <v>3044.232468870864</v>
+        <v>3401.522143973955</v>
       </c>
       <c r="R16">
-        <v>3044.232468870864</v>
+        <v>30613.6992957656</v>
       </c>
       <c r="S16">
-        <v>0.03608030468963359</v>
+        <v>0.0232446524477891</v>
       </c>
       <c r="T16">
-        <v>0.03608030468963359</v>
+        <v>0.0232446524477891</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H17">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="N17">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="O17">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="P17">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="Q17">
-        <v>1202.228959536985</v>
+        <v>1212.192382258382</v>
       </c>
       <c r="R17">
-        <v>1202.228959536985</v>
+        <v>10909.73144032544</v>
       </c>
       <c r="S17">
-        <v>0.01424884190361601</v>
+        <v>0.008283641685347013</v>
       </c>
       <c r="T17">
-        <v>0.01424884190361601</v>
+        <v>0.008283641685347015</v>
       </c>
     </row>
   </sheetData>
